--- a/Data/ExcelToDataprovider.xlsx
+++ b/Data/ExcelToDataprovider.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4507"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2440" windowWidth="18720" windowHeight="6230"/>
+    <workbookView xWindow="240" yWindow="110" windowWidth="14810" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -12,12 +12,17 @@
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
   <calcPr calcId="125725"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+  <si>
+    <t>UserName</t>
+  </si>
+  <si>
+    <t>Password</t>
+  </si>
   <si>
     <t>manja#yuva</t>
   </si>
@@ -25,28 +30,13 @@
     <t>shashi@as12</t>
   </si>
   <si>
+    <t>supri</t>
+  </si>
+  <si>
+    <t>susma</t>
+  </si>
+  <si>
     <t>suraj</t>
-  </si>
-  <si>
-    <t>suprita</t>
-  </si>
-  <si>
-    <t>sushma</t>
-  </si>
-  <si>
-    <t>UserName</t>
-  </si>
-  <si>
-    <t>Password</t>
-  </si>
-  <si>
-    <t>samsungA50</t>
-  </si>
-  <si>
-    <t>collagebags</t>
-  </si>
-  <si>
-    <t>Products</t>
   </si>
 </sst>
 </file>
@@ -398,78 +388,66 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A3" sqref="A3:XFD3"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.26953125" customWidth="1"/>
     <col min="2" max="2" width="14.1796875" customWidth="1"/>
-    <col min="4" max="4" width="11.54296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" customFormat="1">
+    <row r="1" spans="1:2">
       <c r="A1" s="2" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2">
+      <c r="A2" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>12345</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2">
+      <c r="A3" t="s">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>52309</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2">
+      <c r="A4" t="s">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>7879</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2">
+      <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B1" s="2" t="s">
+      <c r="B5">
+        <v>8979</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2">
+      <c r="A6" t="s">
         <v>6</v>
       </c>
-      <c r="D1" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" customFormat="1">
-      <c r="A2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2">
-        <v>4545345</v>
-      </c>
-      <c r="D2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" customFormat="1">
-      <c r="A3" t="s">
-        <v>0</v>
-      </c>
-      <c r="B3">
-        <v>97897897</v>
-      </c>
-      <c r="D3" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" customFormat="1">
-      <c r="A4" t="s">
-        <v>3</v>
-      </c>
-      <c r="B4">
-        <v>342344</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" customFormat="1">
-      <c r="A5" t="s">
-        <v>4</v>
-      </c>
-      <c r="B5">
-        <v>8978989</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" customFormat="1">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
       <c r="B6">
-        <v>76564</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" customFormat="1"/>
-    <row r="8" spans="1:4" customFormat="1"/>
+        <v>899878</v>
+      </c>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A2" r:id="rId1"/>
